--- a/Work-1/Task - 1.xlsx
+++ b/Work-1/Task - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Марина\Студенты\Информатика - ВТБ\Work-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48F81B-DFE1-4390-B5A0-27D6FF475C60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095B7F2-4F84-4DCD-BD23-67029623CC04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{906D7888-2622-45B1-A36A-28630D047B10}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>x=1.7</t>
   </si>
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,13 +123,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -285,6 +297,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23BEFAB-CD18-40AF-9FA4-3E5AF2D88314}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1857375"/>
+          <a:ext cx="3438525" cy="933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -585,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEDAC53-D8E3-4279-8402-CA42D6249CE1}">
-  <dimension ref="D1:J4"/>
+  <dimension ref="D1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F17" sqref="F17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +702,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>-2.9</v>
+      </c>
+      <c r="G18" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4">
+        <f>SQRT($F$18*$F$18+$G$18) - $G$18*$G$18*SIN(($F$18+$H$18)/F18)^3</f>
+        <v>-19.145373790144959</v>
+      </c>
+      <c r="K18" s="4">
+        <f>COS($F$18^3)*COS($F$18^3) - $F$18/SQRT($H$18*$H$18 + $G$18*$G$18)</f>
+        <v>0.72783553660648126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
